--- a/Test Case Perangkat Ajar.xlsx
+++ b/Test Case Perangkat Ajar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\binaracad\fsw-platinum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759474FB-7071-44D0-AECE-EDCA55C2A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A277B9-4BC4-43B0-9E3D-363273052A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="0" windowWidth="25095" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="140">
   <si>
     <t>No.</t>
   </si>
@@ -217,20 +217,254 @@
     <t>Daftar produk yang relevan ditampilkan</t>
   </si>
   <si>
-    <t>Add Teacher</t>
-  </si>
-  <si>
-    <t>Edit Teacher</t>
-  </si>
-  <si>
-    <t>Delete Teacher</t>
+    <t>1. buka halaman classes 2,. Tuliskan kelas yang akan ditambahkan 3. klik add classes</t>
+  </si>
+  <si>
+    <t>Halaman akan terupdate dan muncul kelas yang dituliskan</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Terdapat daftar kelas</t>
+  </si>
+  <si>
+    <t>1. edit pada form input class 2. klik tombol save untuk simpan perubahan</t>
+  </si>
+  <si>
+    <t>nama kelas akan berubah</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>1. klik tombol delete</t>
+  </si>
+  <si>
+    <t>kelas yang dihapus akan hilang dari daftar</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>1. klik add students 2. klik add untuk menampilkan form input 3. isi nama student dan sex 4. kembali ke no:2 atau klik save 5. klik remove untuk menghilangkan 1 form input</t>
+  </si>
+  <si>
+    <t>halaman akan reload</t>
+  </si>
+  <si>
+    <t>Terdapat daftar kelas &amp; siswa</t>
+  </si>
+  <si>
+    <t>1. pilih kelas 2. klik search</t>
+  </si>
+  <si>
+    <t>muncul daftar siswa</t>
+  </si>
+  <si>
+    <t>1. pilih kelas 2. klik search 3. ubah nama siswa dan sex 4. klik save change</t>
+  </si>
+  <si>
+    <t>nama siswa berubah</t>
+  </si>
+  <si>
+    <t>1. pilih kelas 2. klik search 3. klik delete</t>
+  </si>
+  <si>
+    <t>nama siswa terhapus dan hilang dari halaman</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Terdapat daftar guru</t>
+  </si>
+  <si>
+    <t>1. buka halaman teachers 2,. Tuliskan guru yang akan ditambahkan 3. klik add teacher</t>
+  </si>
+  <si>
+    <t>Halaman akan terupdate dan muncul nama guru yang dituliskan</t>
+  </si>
+  <si>
+    <t>Lihat daftar guru</t>
+  </si>
+  <si>
+    <t>1. buka halaman teachers</t>
+  </si>
+  <si>
+    <t>Muncul daftar guru</t>
+  </si>
+  <si>
+    <t>nama guru akan berubah</t>
+  </si>
+  <si>
+    <t>1. edit pada form input guru 2. klik tombol save untuk simpan perubahan</t>
+  </si>
+  <si>
+    <t>guru yang dihapus akan hilang dari daftar</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Lihat daftar mapel</t>
+  </si>
+  <si>
+    <t>Terdapat daftar mapel</t>
+  </si>
+  <si>
+    <t>1. buka halaman subjects</t>
+  </si>
+  <si>
+    <t>Muncul daftar mapel</t>
+  </si>
+  <si>
+    <t>1. buka halaman subjects 2,. Tuliskan mapel yang akan ditambahkan 3. klik add subject</t>
+  </si>
+  <si>
+    <t>Halaman akan terupdate dan muncul nama mapel yang dituliskan</t>
+  </si>
+  <si>
+    <t>1. edit pada form input mapel 2. klik tombol save untuk simpan perubahan</t>
+  </si>
+  <si>
+    <t>nama mapel akan berubah</t>
+  </si>
+  <si>
+    <t>mapel yang dihapus akan hilang dari daftar</t>
+  </si>
+  <si>
+    <t>Teaching notes</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>terdapat catatan mengajar</t>
+  </si>
+  <si>
+    <t>1. buka halaman teaching notes 2. masukkan date, class, subject, teacher 3. klik search</t>
+  </si>
+  <si>
+    <t>muncul daftar catatan mengajar</t>
+  </si>
+  <si>
+    <t>1. buka halaman teaching notes 2. masukkan date, class, subject, teacher 3. klik search 4. klik form yang akan diubah 5. save changes</t>
+  </si>
+  <si>
+    <t>halaman reload &amp; lakukan search kembali untuk melihat perubahan</t>
+  </si>
+  <si>
+    <t>1. buka halaman teaching notes 2. masukkan date, class, subject, teacher 3. klik search 4. klik delete</t>
+  </si>
+  <si>
+    <t>halaman reload &amp; lakukan search kembali untuk melihat perubahan. Sebagian form input akan kosong</t>
+  </si>
+  <si>
+    <t>terdapat daftar kelas, guru, siswa, mapel</t>
+  </si>
+  <si>
+    <t>1. buka halaman teaching notes 2. masukkan date, class, subject, teacher 3. klik search 4. isi form 5. isi form kehadiran siswa 6. klik save</t>
+  </si>
+  <si>
+    <t>Add - tidak valid</t>
+  </si>
+  <si>
+    <t>1. buka halaman teaching notes 2. masukkan date, class, subject, teacher 3. klik search 4. form tidak diisi 5. klik save</t>
+  </si>
+  <si>
+    <t>tidak akan tersimpan, halaman tidak akan reload</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>TC035</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -248,6 +482,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,12 +526,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +753,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -901,21 +1159,481 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>